--- a/Team-Data/2020-21/1-11-2020-21.xlsx
+++ b/Team-Data/2020-21/1-11-2020-21.xlsx
@@ -3049,16 +3049,16 @@
         <v>110.7</v>
       </c>
       <c r="BN3" t="n">
-        <v>112.4</v>
+        <v>112.3</v>
       </c>
       <c r="BO3" t="n">
-        <v>108.2</v>
+        <v>108</v>
       </c>
       <c r="BP3" t="n">
-        <v>110.4</v>
+        <v>110.3</v>
       </c>
       <c r="BQ3" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="BR3" t="n">
         <v>2</v>
@@ -3073,13 +3073,13 @@
         <v>16.8</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.303</v>
+        <v>0.301</v>
       </c>
       <c r="BW3" t="n">
         <v>0.736</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.518</v>
+        <v>0.517</v>
       </c>
       <c r="BY3" t="n">
         <v>0.156</v>
@@ -3091,16 +3091,16 @@
         <v>0.577</v>
       </c>
       <c r="CB3" t="n">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="CC3" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="CD3" t="n">
-        <v>83.83</v>
+        <v>83.92</v>
       </c>
       <c r="CE3" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="CF3" t="n">
         <v>0.508</v>
@@ -3121,7 +3121,7 @@
         <v>21</v>
       </c>
       <c r="CL3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CM3" t="n">
         <v>19</v>
@@ -3139,7 +3139,7 @@
         <v>23</v>
       </c>
       <c r="CR3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CS3" t="n">
         <v>19</v>
@@ -3157,7 +3157,7 @@
         <v>12</v>
       </c>
       <c r="CX3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="CY3" t="n">
         <v>12</v>
@@ -3203,7 +3203,7 @@
         <v>0.156</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.303</v>
+        <v>0.301</v>
       </c>
       <c r="DM3" t="n">
         <v>0.538</v>
@@ -3212,7 +3212,7 @@
         <v>0.266</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.149</v>
+        <v>0.15</v>
       </c>
       <c r="DP3" t="n">
         <v>0.264</v>
@@ -3242,7 +3242,7 @@
         <v>24</v>
       </c>
       <c r="DY3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="DZ3" t="n">
         <v>19</v>
@@ -3251,7 +3251,7 @@
         <v>20</v>
       </c>
       <c r="EB3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="EC3" t="n">
         <v>19</v>
@@ -3518,7 +3518,7 @@
         <v>48</v>
       </c>
       <c r="HI3" t="n">
-        <v>110.4</v>
+        <v>110.3</v>
       </c>
       <c r="HJ3" t="n">
         <v>33.6</v>
@@ -3648,16 +3648,16 @@
         <v>8.699999999999999</v>
       </c>
       <c r="IY3" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="IZ3" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="JA3" t="n">
         <v>23.1</v>
       </c>
       <c r="JB3" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="JC3" t="n">
         <v>7.8</v>
@@ -4047,7 +4047,7 @@
         <v>2</v>
       </c>
       <c r="CL4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CM4" t="n">
         <v>8</v>
@@ -8538,7 +8538,7 @@
         <v>14</v>
       </c>
       <c r="AS9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT9" t="n">
         <v>26</v>
@@ -8695,7 +8695,7 @@
         <v>4</v>
       </c>
       <c r="CR9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CS9" t="n">
         <v>23</v>
@@ -8798,7 +8798,7 @@
         <v>18</v>
       </c>
       <c r="DY9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DZ9" t="n">
         <v>22</v>
@@ -9119,7 +9119,7 @@
         <v>25</v>
       </c>
       <c r="HX9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="HY9" t="n">
         <v>23</v>
@@ -9386,16 +9386,16 @@
         <v>11.1</v>
       </c>
       <c r="S10" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T10" t="n">
-        <v>43.7</v>
+        <v>43.8</v>
       </c>
       <c r="U10" t="n">
         <v>23.6</v>
       </c>
       <c r="V10" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W10" t="n">
         <v>8.4</v>
@@ -9473,7 +9473,7 @@
         <v>19</v>
       </c>
       <c r="AV10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW10" t="n">
         <v>9</v>
@@ -9528,19 +9528,19 @@
         <v>495</v>
       </c>
       <c r="BM10" t="n">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="BN10" t="n">
-        <v>106.3</v>
+        <v>106.1</v>
       </c>
       <c r="BO10" t="n">
         <v>110.6</v>
       </c>
       <c r="BP10" t="n">
-        <v>111.9</v>
+        <v>111.8</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-7.1</v>
+        <v>-7.2</v>
       </c>
       <c r="BR10" t="n">
         <v>-5.7</v>
@@ -9549,7 +9549,7 @@
         <v>0.61</v>
       </c>
       <c r="BT10" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="BU10" t="n">
         <v>16.8</v>
@@ -9558,13 +9558,13 @@
         <v>0.269</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.726</v>
+        <v>0.728</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.477</v>
+        <v>0.478</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.131</v>
+        <v>0.132</v>
       </c>
       <c r="BZ10" t="n">
         <v>0.487</v>
@@ -9573,16 +9573,16 @@
         <v>0.529</v>
       </c>
       <c r="CB10" t="n">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="CC10" t="n">
-        <v>99.64</v>
+        <v>99.73</v>
       </c>
       <c r="CD10" t="n">
-        <v>83.03</v>
+        <v>83.11</v>
       </c>
       <c r="CE10" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="CF10" t="n">
         <v>0.456</v>
@@ -9630,7 +9630,7 @@
         <v>28</v>
       </c>
       <c r="CU10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CV10" t="n">
         <v>30</v>
@@ -9682,7 +9682,7 @@
         <v>0.248</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.131</v>
+        <v>0.132</v>
       </c>
       <c r="DL10" t="n">
         <v>0.269</v>
@@ -9697,7 +9697,7 @@
         <v>0.167</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.274</v>
+        <v>0.272</v>
       </c>
       <c r="DQ10" t="n">
         <v>14</v>
@@ -9721,7 +9721,7 @@
         <v>16</v>
       </c>
       <c r="DX10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DY10" t="n">
         <v>13</v>
@@ -10000,13 +10000,13 @@
         <v>49.5</v>
       </c>
       <c r="HI10" t="n">
-        <v>111.9</v>
+        <v>111.8</v>
       </c>
       <c r="HJ10" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="HK10" t="n">
-        <v>0.726</v>
+        <v>0.728</v>
       </c>
       <c r="HL10" t="n">
         <v>8.4</v>
@@ -12408,7 +12408,7 @@
         <v>22</v>
       </c>
       <c r="CU13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CV13" t="n">
         <v>6</v>
@@ -12499,7 +12499,7 @@
         <v>26</v>
       </c>
       <c r="DX13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DY13" t="n">
         <v>24</v>
@@ -14269,7 +14269,7 @@
         <v>7</v>
       </c>
       <c r="CX15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CY15" t="n">
         <v>2</v>
@@ -28141,7 +28141,7 @@
         <v>28</v>
       </c>
       <c r="CR30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CS30" t="n">
         <v>3</v>
@@ -28244,7 +28244,7 @@
         <v>20</v>
       </c>
       <c r="DY30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DZ30" t="n">
         <v>5</v>
@@ -29179,7 +29179,7 @@
         <v>30</v>
       </c>
       <c r="EB31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="EC31" t="n">
         <v>6</v>

--- a/Team-Data/2020-21/1-11-2020-21.xlsx
+++ b/Team-Data/2020-21/1-11-2020-21.xlsx
@@ -733,94 +733,94 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
         <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0.444</v>
       </c>
       <c r="H2" t="n">
         <v>48</v>
       </c>
       <c r="I2" t="n">
-        <v>39.3</v>
+        <v>39.6</v>
       </c>
       <c r="J2" t="n">
-        <v>89.90000000000001</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.437</v>
+        <v>0.445</v>
       </c>
       <c r="L2" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="M2" t="n">
-        <v>39</v>
+        <v>38.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0.359</v>
+        <v>0.355</v>
       </c>
       <c r="O2" t="n">
         <v>21.3</v>
       </c>
       <c r="P2" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="S2" t="n">
-        <v>37.3</v>
+        <v>36.6</v>
       </c>
       <c r="T2" t="n">
-        <v>49.7</v>
+        <v>48.8</v>
       </c>
       <c r="U2" t="n">
-        <v>24.4</v>
+        <v>24.9</v>
       </c>
       <c r="V2" t="n">
-        <v>14.4</v>
+        <v>15.1</v>
       </c>
       <c r="W2" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.1</v>
+        <v>22</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.6</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.9</v>
+        <v>114.1</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AF2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AH2" t="n">
         <v>15</v>
@@ -829,16 +829,16 @@
         <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AL2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AM2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AN2" t="n">
         <v>19</v>
@@ -856,16 +856,16 @@
         <v>1</v>
       </c>
       <c r="AS2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AT2" t="n">
         <v>2</v>
       </c>
       <c r="AU2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AV2" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AW2" t="n">
         <v>28</v>
@@ -874,19 +874,19 @@
         <v>28</v>
       </c>
       <c r="AY2" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AZ2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="BA2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB2" t="n">
         <v>9</v>
       </c>
       <c r="BC2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -898,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-11-2020-21</t>
+          <t>2021-01-11</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
         <v>1.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AE3" t="n">
         <v>2</v>
@@ -1026,19 +1026,19 @@
         <v>3</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
         <v>20</v>
       </c>
       <c r="AR3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT3" t="n">
         <v>12</v>
@@ -1050,22 +1050,22 @@
         <v>23</v>
       </c>
       <c r="AW3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX3" t="n">
         <v>3</v>
       </c>
       <c r="AY3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA3" t="n">
         <v>19</v>
       </c>
       <c r="BB3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC3" t="n">
         <v>11</v>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-11-2020-21</t>
+          <t>2021-01-11</t>
         </is>
       </c>
     </row>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AI4" t="n">
         <v>7</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL4" t="n">
         <v>7</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>6</v>
       </c>
       <c r="AM4" t="n">
         <v>12</v>
@@ -1217,22 +1217,22 @@
         <v>6</v>
       </c>
       <c r="AR4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS4" t="n">
         <v>3</v>
       </c>
       <c r="AT4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX4" t="n">
         <v>7</v>
@@ -1241,7 +1241,7 @@
         <v>6</v>
       </c>
       <c r="AZ4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA4" t="n">
         <v>9</v>
@@ -1250,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="BC4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-11-2020-21</t>
+          <t>2021-01-11</t>
         </is>
       </c>
     </row>
@@ -1279,106 +1279,106 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>0.545</v>
+        <v>0.5</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="J5" t="n">
-        <v>86.7</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.449</v>
+        <v>0.445</v>
       </c>
       <c r="L5" t="n">
         <v>13.1</v>
       </c>
       <c r="M5" t="n">
-        <v>35.6</v>
+        <v>36</v>
       </c>
       <c r="N5" t="n">
-        <v>0.367</v>
+        <v>0.364</v>
       </c>
       <c r="O5" t="n">
-        <v>17.5</v>
+        <v>17.3</v>
       </c>
       <c r="P5" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.745</v>
+        <v>0.733</v>
       </c>
       <c r="R5" t="n">
-        <v>10.3</v>
+        <v>10.8</v>
       </c>
       <c r="S5" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="T5" t="n">
-        <v>43.8</v>
+        <v>44.5</v>
       </c>
       <c r="U5" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="V5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="W5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>108.4</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF5" t="n">
         <v>15</v>
       </c>
-      <c r="W5" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="X5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>108.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF5" t="n">
+      <c r="AG5" t="n">
         <v>14</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>13</v>
       </c>
       <c r="AH5" t="n">
         <v>15</v>
       </c>
       <c r="AI5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ5" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
         <v>14</v>
@@ -1387,52 +1387,52 @@
         <v>13</v>
       </c>
       <c r="AN5" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AO5" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AP5" t="n">
         <v>11</v>
       </c>
       <c r="AQ5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS5" t="n">
         <v>21</v>
       </c>
-      <c r="AR5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>25</v>
-      </c>
       <c r="AT5" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AU5" t="n">
         <v>1</v>
       </c>
       <c r="AV5" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AW5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY5" t="n">
         <v>12</v>
       </c>
       <c r="AZ5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA5" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BB5" t="n">
         <v>24</v>
       </c>
       <c r="BC5" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-11-2020-21</t>
+          <t>2021-01-11</t>
         </is>
       </c>
     </row>
@@ -1542,13 +1542,13 @@
         <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF6" t="n">
         <v>26</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH6" t="n">
         <v>15</v>
@@ -1569,13 +1569,13 @@
         <v>14</v>
       </c>
       <c r="AN6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ6" t="n">
         <v>3</v>
@@ -1584,7 +1584,7 @@
         <v>22</v>
       </c>
       <c r="AS6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT6" t="n">
         <v>23</v>
@@ -1596,7 +1596,7 @@
         <v>30</v>
       </c>
       <c r="AW6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX6" t="n">
         <v>26</v>
@@ -1605,16 +1605,16 @@
         <v>9</v>
       </c>
       <c r="AZ6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB6" t="n">
         <v>6</v>
       </c>
       <c r="BC6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-11-2020-21</t>
+          <t>2021-01-11</t>
         </is>
       </c>
     </row>
@@ -1643,106 +1643,106 @@
         </is>
       </c>
       <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>49</v>
+      </c>
+      <c r="I7" t="n">
+        <v>39</v>
+      </c>
+      <c r="J7" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="L7" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="O7" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="R7" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="T7" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="U7" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="W7" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="X7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE7" t="n">
         <v>11</v>
       </c>
-      <c r="E7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="H7" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="I7" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="J7" t="n">
-        <v>86.90000000000001</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.447</v>
-      </c>
-      <c r="L7" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M7" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="O7" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="P7" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.653</v>
-      </c>
-      <c r="R7" t="n">
-        <v>11</v>
-      </c>
-      <c r="S7" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="T7" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="U7" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="V7" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="W7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>100</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>-2.8</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>13</v>
-      </c>
       <c r="AF7" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI7" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AJ7" t="n">
         <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL7" t="n">
         <v>28</v>
@@ -1751,37 +1751,37 @@
         <v>29</v>
       </c>
       <c r="AN7" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AO7" t="n">
         <v>30</v>
       </c>
       <c r="AP7" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AQ7" t="n">
         <v>30</v>
       </c>
       <c r="AR7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS7" t="n">
         <v>27</v>
       </c>
       <c r="AT7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AU7" t="n">
         <v>18</v>
       </c>
       <c r="AV7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW7" t="n">
         <v>1</v>
       </c>
       <c r="AX7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY7" t="n">
         <v>11</v>
@@ -1796,7 +1796,7 @@
         <v>30</v>
       </c>
       <c r="BC7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-11-2020-21</t>
+          <t>2021-01-11</t>
         </is>
       </c>
     </row>
@@ -1903,13 +1903,13 @@
         <v>4.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AG8" t="n">
         <v>11</v>
@@ -1927,7 +1927,7 @@
         <v>16</v>
       </c>
       <c r="AL8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM8" t="n">
         <v>7</v>
@@ -1936,7 +1936,7 @@
         <v>21</v>
       </c>
       <c r="AO8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP8" t="n">
         <v>5</v>
@@ -1945,22 +1945,22 @@
         <v>14</v>
       </c>
       <c r="AR8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT8" t="n">
         <v>24</v>
       </c>
       <c r="AU8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX8" t="n">
         <v>24</v>
@@ -1969,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="AZ8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1978,7 +1978,7 @@
         <v>19</v>
       </c>
       <c r="BC8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-11-2020-21</t>
+          <t>2021-01-11</t>
         </is>
       </c>
     </row>
@@ -2085,16 +2085,16 @@
         <v>3.7</v>
       </c>
       <c r="AD9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG9" t="n">
         <v>14</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>15</v>
       </c>
       <c r="AH9" t="n">
         <v>2</v>
@@ -2106,16 +2106,16 @@
         <v>20</v>
       </c>
       <c r="AK9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL9" t="n">
         <v>18</v>
       </c>
       <c r="AM9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO9" t="n">
         <v>13</v>
@@ -2127,22 +2127,22 @@
         <v>23</v>
       </c>
       <c r="AR9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV9" t="n">
         <v>14</v>
       </c>
-      <c r="AS9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>15</v>
-      </c>
       <c r="AW9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX9" t="n">
         <v>22</v>
@@ -2151,7 +2151,7 @@
         <v>7</v>
       </c>
       <c r="AZ9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA9" t="n">
         <v>2</v>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-11-2020-21</t>
+          <t>2021-01-11</t>
         </is>
       </c>
     </row>
@@ -2234,16 +2234,16 @@
         <v>11.1</v>
       </c>
       <c r="S10" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T10" t="n">
-        <v>43.7</v>
+        <v>43.8</v>
       </c>
       <c r="U10" t="n">
         <v>23.6</v>
       </c>
       <c r="V10" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W10" t="n">
         <v>8.4</v>
@@ -2267,13 +2267,13 @@
         <v>-6.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF10" t="n">
         <v>29</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>28</v>
       </c>
       <c r="AG10" t="n">
         <v>29</v>
@@ -2285,25 +2285,25 @@
         <v>27</v>
       </c>
       <c r="AJ10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK10" t="n">
         <v>30</v>
       </c>
       <c r="AL10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO10" t="n">
         <v>11</v>
       </c>
       <c r="AP10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ10" t="n">
         <v>8</v>
@@ -2321,19 +2321,19 @@
         <v>19</v>
       </c>
       <c r="AV10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA10" t="n">
         <v>10</v>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-11-2020-21</t>
+          <t>2021-01-11</t>
         </is>
       </c>
     </row>
@@ -2449,13 +2449,13 @@
         <v>-2.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AG11" t="n">
         <v>7</v>
@@ -2482,7 +2482,7 @@
         <v>22</v>
       </c>
       <c r="AO11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP11" t="n">
         <v>6</v>
@@ -2494,22 +2494,22 @@
         <v>23</v>
       </c>
       <c r="AS11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU11" t="n">
         <v>14</v>
       </c>
       <c r="AV11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY11" t="n">
         <v>16</v>
@@ -2521,10 +2521,10 @@
         <v>4</v>
       </c>
       <c r="BB11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-11-2020-21</t>
+          <t>2021-01-11</t>
         </is>
       </c>
     </row>
@@ -2634,13 +2634,13 @@
         <v>29</v>
       </c>
       <c r="AE12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH12" t="n">
         <v>4</v>
@@ -2664,7 +2664,7 @@
         <v>24</v>
       </c>
       <c r="AO12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP12" t="n">
         <v>7</v>
@@ -2673,7 +2673,7 @@
         <v>16</v>
       </c>
       <c r="AR12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS12" t="n">
         <v>19</v>
@@ -2685,28 +2685,28 @@
         <v>24</v>
       </c>
       <c r="AV12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW12" t="n">
         <v>21</v>
       </c>
       <c r="AX12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ12" t="n">
         <v>15</v>
       </c>
       <c r="BA12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB12" t="n">
         <v>13</v>
       </c>
       <c r="BC12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-11-2020-21</t>
+          <t>2021-01-11</t>
         </is>
       </c>
     </row>
@@ -2735,55 +2735,55 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
         <v>6</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6</v>
+        <v>0.667</v>
       </c>
       <c r="H13" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I13" t="n">
-        <v>44</v>
+        <v>43.7</v>
       </c>
       <c r="J13" t="n">
-        <v>90.09999999999999</v>
+        <v>89.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.488</v>
+        <v>0.489</v>
       </c>
       <c r="L13" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="M13" t="n">
-        <v>34</v>
+        <v>33.4</v>
       </c>
       <c r="N13" t="n">
-        <v>0.365</v>
+        <v>0.369</v>
       </c>
       <c r="O13" t="n">
         <v>15.3</v>
       </c>
       <c r="P13" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.757</v>
+        <v>0.75</v>
       </c>
       <c r="R13" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="S13" t="n">
-        <v>33.7</v>
+        <v>34.4</v>
       </c>
       <c r="T13" t="n">
-        <v>41.7</v>
+        <v>42.2</v>
       </c>
       <c r="U13" t="n">
         <v>26.4</v>
@@ -2792,46 +2792,46 @@
         <v>13.4</v>
       </c>
       <c r="W13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X13" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="AA13" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="AB13" t="n">
-        <v>115.7</v>
+        <v>115</v>
       </c>
       <c r="AC13" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI13" t="n">
         <v>2</v>
       </c>
       <c r="AJ13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK13" t="n">
         <v>4</v>
@@ -2840,55 +2840,55 @@
         <v>19</v>
       </c>
       <c r="AM13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN13" t="n">
         <v>14</v>
       </c>
       <c r="AO13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP13" t="n">
         <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR13" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AS13" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AT13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU13" t="n">
         <v>5</v>
       </c>
       <c r="AV13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX13" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AY13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ13" t="n">
         <v>27</v>
       </c>
       <c r="BA13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BB13" t="n">
         <v>7</v>
       </c>
       <c r="BC13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-11-2020-21</t>
+          <t>2021-01-11</t>
         </is>
       </c>
     </row>
@@ -3001,10 +3001,10 @@
         <v>2</v>
       </c>
       <c r="AF14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
         <v>15</v>
@@ -3016,10 +3016,10 @@
         <v>26</v>
       </c>
       <c r="AK14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM14" t="n">
         <v>16</v>
@@ -3028,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="AO14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP14" t="n">
         <v>24</v>
@@ -3046,13 +3046,13 @@
         <v>30</v>
       </c>
       <c r="AU14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX14" t="n">
         <v>15</v>
@@ -3061,13 +3061,13 @@
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA14" t="n">
         <v>29</v>
       </c>
       <c r="BB14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC14" t="n">
         <v>12</v>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-11-2020-21</t>
+          <t>2021-01-11</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
         <v>20</v>
       </c>
       <c r="AP15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ15" t="n">
         <v>15</v>
@@ -3231,10 +3231,10 @@
         <v>12</v>
       </c>
       <c r="AV15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX15" t="n">
         <v>4</v>
@@ -3246,7 +3246,7 @@
         <v>7</v>
       </c>
       <c r="BA15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB15" t="n">
         <v>8</v>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-11-2020-21</t>
+          <t>2021-01-11</t>
         </is>
       </c>
     </row>
@@ -3281,58 +3281,58 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>6</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4</v>
+        <v>0.333</v>
       </c>
       <c r="H16" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I16" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="J16" t="n">
-        <v>91</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.447</v>
+        <v>0.441</v>
       </c>
       <c r="L16" t="n">
-        <v>10.4</v>
+        <v>11</v>
       </c>
       <c r="M16" t="n">
-        <v>31.3</v>
+        <v>32.6</v>
       </c>
       <c r="N16" t="n">
-        <v>0.332</v>
+        <v>0.338</v>
       </c>
       <c r="O16" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="P16" t="n">
-        <v>17.5</v>
+        <v>17.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.777</v>
+        <v>0.779</v>
       </c>
       <c r="R16" t="n">
-        <v>10.3</v>
+        <v>10.7</v>
       </c>
       <c r="S16" t="n">
-        <v>35.7</v>
+        <v>36</v>
       </c>
       <c r="T16" t="n">
-        <v>46</v>
+        <v>46.7</v>
       </c>
       <c r="U16" t="n">
-        <v>26.2</v>
+        <v>25.6</v>
       </c>
       <c r="V16" t="n">
         <v>15.2</v>
@@ -3341,79 +3341,79 @@
         <v>9.6</v>
       </c>
       <c r="X16" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z16" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="AA16" t="n">
-        <v>17.1</v>
+        <v>16.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>105.4</v>
+        <v>105.9</v>
       </c>
       <c r="AC16" t="n">
-        <v>-2.6</v>
+        <v>-4</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AF16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM16" t="n">
         <v>21</v>
       </c>
-      <c r="AG16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>23</v>
-      </c>
       <c r="AN16" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AO16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP16" t="n">
         <v>30</v>
       </c>
       <c r="AQ16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR16" t="n">
         <v>11</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>12</v>
       </c>
       <c r="AS16" t="n">
         <v>13</v>
       </c>
       <c r="AT16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AV16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
@@ -3434,7 +3434,7 @@
         <v>27</v>
       </c>
       <c r="BC16" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-11-2020-21</t>
+          <t>2021-01-11</t>
         </is>
       </c>
     </row>
@@ -3544,13 +3544,13 @@
         <v>29</v>
       </c>
       <c r="AE17" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH17" t="n">
         <v>15</v>
@@ -3571,13 +3571,13 @@
         <v>15</v>
       </c>
       <c r="AN17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO17" t="n">
         <v>12</v>
       </c>
       <c r="AP17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ17" t="n">
         <v>13</v>
@@ -3589,7 +3589,7 @@
         <v>5</v>
       </c>
       <c r="AT17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AU17" t="n">
         <v>4</v>
@@ -3607,7 +3607,7 @@
         <v>4</v>
       </c>
       <c r="AZ17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA17" t="n">
         <v>8</v>
@@ -3616,7 +3616,7 @@
         <v>23</v>
       </c>
       <c r="BC17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-11-2020-21</t>
+          <t>2021-01-11</t>
         </is>
       </c>
     </row>
@@ -3645,94 +3645,94 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" t="n">
         <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>0.636</v>
+        <v>0.6</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>45</v>
+        <v>44.9</v>
       </c>
       <c r="J18" t="n">
         <v>91.09999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.494</v>
+        <v>0.493</v>
       </c>
       <c r="L18" t="n">
-        <v>16.3</v>
+        <v>16.6</v>
       </c>
       <c r="M18" t="n">
-        <v>39.6</v>
+        <v>40.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.411</v>
+        <v>0.414</v>
       </c>
       <c r="O18" t="n">
         <v>15.6</v>
       </c>
       <c r="P18" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.758</v>
+        <v>0.754</v>
       </c>
       <c r="R18" t="n">
         <v>10.6</v>
       </c>
       <c r="S18" t="n">
-        <v>36.7</v>
+        <v>37.2</v>
       </c>
       <c r="T18" t="n">
-        <v>47.4</v>
+        <v>47.8</v>
       </c>
       <c r="U18" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="V18" t="n">
         <v>15.3</v>
       </c>
       <c r="W18" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X18" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="AA18" t="n">
-        <v>18.6</v>
+        <v>19.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>121.9</v>
+        <v>122</v>
       </c>
       <c r="AC18" t="n">
-        <v>11.6</v>
+        <v>10.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AF18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AG18" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AH18" t="n">
         <v>15</v>
@@ -3741,10 +3741,10 @@
         <v>1</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL18" t="n">
         <v>1</v>
@@ -3765,10 +3765,10 @@
         <v>18</v>
       </c>
       <c r="AR18" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AS18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AT18" t="n">
         <v>5</v>
@@ -3777,22 +3777,22 @@
         <v>7</v>
       </c>
       <c r="AV18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY18" t="n">
         <v>17</v>
       </c>
-      <c r="AY18" t="n">
-        <v>15</v>
-      </c>
       <c r="AZ18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB18" t="n">
         <v>1</v>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-11-2020-21</t>
+          <t>2021-01-11</t>
         </is>
       </c>
     </row>
@@ -3905,10 +3905,10 @@
         <v>-10</v>
       </c>
       <c r="AD19" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AE19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF19" t="n">
         <v>26</v>
@@ -3917,16 +3917,16 @@
         <v>27</v>
       </c>
       <c r="AH19" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI19" t="n">
         <v>13</v>
       </c>
       <c r="AJ19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
         <v>24</v>
@@ -3935,31 +3935,31 @@
         <v>17</v>
       </c>
       <c r="AN19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO19" t="n">
         <v>21</v>
       </c>
       <c r="AP19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ19" t="n">
         <v>22</v>
       </c>
       <c r="AR19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT19" t="n">
         <v>13</v>
       </c>
       <c r="AU19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW19" t="n">
         <v>14</v>
@@ -3971,10 +3971,10 @@
         <v>17</v>
       </c>
       <c r="AZ19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB19" t="n">
         <v>21</v>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-11-2020-21</t>
+          <t>2021-01-11</t>
         </is>
       </c>
     </row>
@@ -4087,16 +4087,16 @@
         <v>0.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH20" t="n">
         <v>5</v>
@@ -4120,10 +4120,10 @@
         <v>30</v>
       </c>
       <c r="AO20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ20" t="n">
         <v>28</v>
@@ -4138,13 +4138,13 @@
         <v>3</v>
       </c>
       <c r="AU20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX20" t="n">
         <v>25</v>
@@ -4153,7 +4153,7 @@
         <v>14</v>
       </c>
       <c r="AZ20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA20" t="n">
         <v>3</v>
@@ -4162,7 +4162,7 @@
         <v>25</v>
       </c>
       <c r="BC20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-11-2020-21</t>
+          <t>2021-01-11</t>
         </is>
       </c>
     </row>
@@ -4191,94 +4191,94 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>0.455</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>48</v>
       </c>
       <c r="I21" t="n">
-        <v>37.5</v>
+        <v>37.9</v>
       </c>
       <c r="J21" t="n">
-        <v>84.7</v>
+        <v>84.5</v>
       </c>
       <c r="K21" t="n">
-        <v>0.443</v>
+        <v>0.449</v>
       </c>
       <c r="L21" t="n">
         <v>9.5</v>
       </c>
       <c r="M21" t="n">
-        <v>27.3</v>
+        <v>26.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.347</v>
+        <v>0.361</v>
       </c>
       <c r="O21" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="P21" t="n">
-        <v>21.2</v>
+        <v>21.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.734</v>
+        <v>0.741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.6</v>
+        <v>10</v>
       </c>
       <c r="S21" t="n">
-        <v>35.7</v>
+        <v>36.1</v>
       </c>
       <c r="T21" t="n">
-        <v>46.4</v>
+        <v>46.1</v>
       </c>
       <c r="U21" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="V21" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W21" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X21" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.7</v>
+        <v>20.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>100.1</v>
+        <v>101.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>-5.4</v>
+        <v>-3.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF21" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AH21" t="n">
         <v>15</v>
@@ -4290,40 +4290,40 @@
         <v>28</v>
       </c>
       <c r="AK21" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM21" t="n">
         <v>30</v>
       </c>
       <c r="AN21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AV21" t="n">
         <v>23</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>24</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>25</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>28</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>24</v>
       </c>
       <c r="AW21" t="n">
         <v>24</v>
@@ -4332,19 +4332,19 @@
         <v>17</v>
       </c>
       <c r="AY21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ21" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BA21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BB21" t="n">
         <v>29</v>
       </c>
       <c r="BC21" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-11-2020-21</t>
+          <t>2021-01-11</t>
         </is>
       </c>
     </row>
@@ -4451,13 +4451,13 @@
         <v>-4</v>
       </c>
       <c r="AD22" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AE22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AG22" t="n">
         <v>11</v>
@@ -4481,13 +4481,13 @@
         <v>3</v>
       </c>
       <c r="AN22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO22" t="n">
         <v>27</v>
       </c>
       <c r="AP22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ22" t="n">
         <v>27</v>
@@ -4502,16 +4502,16 @@
         <v>14</v>
       </c>
       <c r="AU22" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AV22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW22" t="n">
         <v>23</v>
       </c>
       <c r="AX22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY22" t="n">
         <v>2</v>
@@ -4526,7 +4526,7 @@
         <v>28</v>
       </c>
       <c r="BC22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-11-2020-21</t>
+          <t>2021-01-11</t>
         </is>
       </c>
     </row>
@@ -4555,103 +4555,103 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" t="n">
         <v>6</v>
       </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G23" t="n">
-        <v>0.545</v>
+        <v>0.6</v>
       </c>
       <c r="H23" t="n">
         <v>48</v>
       </c>
       <c r="I23" t="n">
-        <v>39.8</v>
+        <v>39.9</v>
       </c>
       <c r="J23" t="n">
         <v>91.40000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L23" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="M23" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.325</v>
+        <v>0.322</v>
       </c>
       <c r="O23" t="n">
-        <v>16.8</v>
+        <v>17.5</v>
       </c>
       <c r="P23" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="R23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="T23" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="U23" t="n">
         <v>20.7</v>
       </c>
-      <c r="Q23" t="n">
-        <v>0.8110000000000001</v>
-      </c>
-      <c r="R23" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="S23" t="n">
-        <v>35</v>
-      </c>
-      <c r="T23" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="U23" t="n">
-        <v>21</v>
-      </c>
       <c r="V23" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="W23" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="X23" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>17.2</v>
+        <v>17.6</v>
       </c>
       <c r="AA23" t="n">
-        <v>19.5</v>
+        <v>19.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>106.1</v>
+        <v>106.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-4.2</v>
+        <v>-2.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG23" t="n">
         <v>7</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>13</v>
       </c>
       <c r="AH23" t="n">
         <v>15</v>
       </c>
       <c r="AI23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK23" t="n">
         <v>29</v>
@@ -4666,49 +4666,49 @@
         <v>29</v>
       </c>
       <c r="AO23" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AP23" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AQ23" t="n">
         <v>4</v>
       </c>
       <c r="AR23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AS23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AU23" t="n">
         <v>30</v>
       </c>
       <c r="AV23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX23" t="n">
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA23" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BB23" t="n">
         <v>26</v>
       </c>
       <c r="BC23" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-11-2020-21</t>
+          <t>2021-01-11</t>
         </is>
       </c>
     </row>
@@ -4737,94 +4737,94 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>0.636</v>
+        <v>0.7</v>
       </c>
       <c r="H24" t="n">
         <v>48</v>
       </c>
       <c r="I24" t="n">
-        <v>41.4</v>
+        <v>41.8</v>
       </c>
       <c r="J24" t="n">
-        <v>87.8</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.471</v>
+        <v>0.478</v>
       </c>
       <c r="L24" t="n">
-        <v>11.5</v>
+        <v>11.9</v>
       </c>
       <c r="M24" t="n">
-        <v>32.1</v>
+        <v>31.7</v>
       </c>
       <c r="N24" t="n">
-        <v>0.36</v>
+        <v>0.375</v>
       </c>
       <c r="O24" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="P24" t="n">
-        <v>22.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.763</v>
+        <v>0.754</v>
       </c>
       <c r="R24" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="S24" t="n">
-        <v>38.2</v>
+        <v>37.9</v>
       </c>
       <c r="T24" t="n">
-        <v>47.4</v>
+        <v>47.1</v>
       </c>
       <c r="U24" t="n">
-        <v>25.3</v>
+        <v>25.8</v>
       </c>
       <c r="V24" t="n">
-        <v>16.6</v>
+        <v>17.4</v>
       </c>
       <c r="W24" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="X24" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.1</v>
+        <v>20.4</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.5</v>
+        <v>21.2</v>
       </c>
       <c r="AB24" t="n">
-        <v>111.3</v>
+        <v>113</v>
       </c>
       <c r="AC24" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
         <v>2</v>
       </c>
       <c r="AF24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH24" t="n">
         <v>15</v>
@@ -4833,25 +4833,25 @@
         <v>10</v>
       </c>
       <c r="AJ24" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AK24" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AL24" t="n">
         <v>23</v>
       </c>
       <c r="AM24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AO24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP24" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AQ24" t="n">
         <v>17</v>
@@ -4860,37 +4860,37 @@
         <v>19</v>
       </c>
       <c r="AS24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>28</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA24" t="n">
         <v>11</v>
       </c>
-      <c r="AV24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>14</v>
-      </c>
       <c r="BB24" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BC24" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-11-2020-21</t>
+          <t>2021-01-11</t>
         </is>
       </c>
     </row>
@@ -4919,100 +4919,100 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>0.636</v>
+        <v>0.7</v>
       </c>
       <c r="H25" t="n">
         <v>48.5</v>
       </c>
       <c r="I25" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="J25" t="n">
-        <v>85.90000000000001</v>
+        <v>85.8</v>
       </c>
       <c r="K25" t="n">
-        <v>0.469</v>
+        <v>0.471</v>
       </c>
       <c r="L25" t="n">
-        <v>13.9</v>
+        <v>14.9</v>
       </c>
       <c r="M25" t="n">
-        <v>37.9</v>
+        <v>39</v>
       </c>
       <c r="N25" t="n">
-        <v>0.367</v>
+        <v>0.382</v>
       </c>
       <c r="O25" t="n">
-        <v>16</v>
+        <v>15.1</v>
       </c>
       <c r="P25" t="n">
-        <v>19.4</v>
+        <v>18.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.826</v>
+        <v>0.825</v>
       </c>
       <c r="R25" t="n">
         <v>7.7</v>
       </c>
       <c r="S25" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="T25" t="n">
         <v>42.4</v>
       </c>
       <c r="U25" t="n">
-        <v>25.9</v>
+        <v>26.4</v>
       </c>
       <c r="V25" t="n">
-        <v>12.6</v>
+        <v>13.3</v>
       </c>
       <c r="W25" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="X25" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y25" t="n">
         <v>3.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.9</v>
+        <v>19.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>110.5</v>
+        <v>110.8</v>
       </c>
       <c r="AC25" t="n">
-        <v>3.7</v>
+        <v>6.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
         <v>2</v>
       </c>
       <c r="AF25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ25" t="n">
         <v>23</v>
@@ -5021,19 +5021,19 @@
         <v>13</v>
       </c>
       <c r="AL25" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AM25" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AN25" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AO25" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AP25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ25" t="n">
         <v>2</v>
@@ -5045,34 +5045,34 @@
         <v>18</v>
       </c>
       <c r="AT25" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AU25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW25" t="n">
         <v>29</v>
       </c>
       <c r="AX25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ25" t="n">
         <v>20</v>
       </c>
-      <c r="AY25" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>22</v>
-      </c>
       <c r="BA25" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BB25" t="n">
         <v>18</v>
       </c>
       <c r="BC25" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-11-2020-21</t>
+          <t>2021-01-11</t>
         </is>
       </c>
     </row>
@@ -5101,118 +5101,118 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
         <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6</v>
+        <v>0.556</v>
       </c>
       <c r="H26" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>41</v>
+        <v>41.3</v>
       </c>
       <c r="J26" t="n">
-        <v>91.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L26" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="M26" t="n">
         <v>42.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.381</v>
+        <v>0.386</v>
       </c>
       <c r="O26" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="P26" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8</v>
+        <v>0.791</v>
       </c>
       <c r="R26" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="S26" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="T26" t="n">
-        <v>44.4</v>
+        <v>44.7</v>
       </c>
       <c r="U26" t="n">
-        <v>22.2</v>
+        <v>22.7</v>
       </c>
       <c r="V26" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="W26" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X26" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="Y26" t="n">
         <v>5.4</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.5</v>
+        <v>21.2</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>117.3</v>
+        <v>117.9</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AD26" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE26" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AF26" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL26" t="n">
         <v>2</v>
       </c>
       <c r="AM26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AO26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AP26" t="n">
         <v>9</v>
@@ -5227,28 +5227,28 @@
         <v>10</v>
       </c>
       <c r="AT26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU26" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AV26" t="n">
         <v>2</v>
       </c>
       <c r="AW26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AX26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ26" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BA26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BB26" t="n">
         <v>4</v>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-11-2020-21</t>
+          <t>2021-01-11</t>
         </is>
       </c>
     </row>
@@ -5283,118 +5283,118 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
         <v>6</v>
       </c>
       <c r="G27" t="n">
-        <v>0.455</v>
+        <v>0.4</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>41.2</v>
+        <v>40.6</v>
       </c>
       <c r="J27" t="n">
-        <v>88.3</v>
+        <v>88.7</v>
       </c>
       <c r="K27" t="n">
-        <v>0.467</v>
+        <v>0.458</v>
       </c>
       <c r="L27" t="n">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="M27" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="N27" t="n">
-        <v>0.363</v>
+        <v>0.352</v>
       </c>
       <c r="O27" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="P27" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.721</v>
+        <v>0.716</v>
       </c>
       <c r="R27" t="n">
-        <v>10.5</v>
+        <v>10.8</v>
       </c>
       <c r="S27" t="n">
-        <v>33.7</v>
+        <v>33.4</v>
       </c>
       <c r="T27" t="n">
         <v>44.2</v>
       </c>
       <c r="U27" t="n">
-        <v>24.6</v>
+        <v>24.2</v>
       </c>
       <c r="V27" t="n">
-        <v>14.3</v>
+        <v>13.8</v>
       </c>
       <c r="W27" t="n">
         <v>6.5</v>
       </c>
       <c r="X27" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="Z27" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>113.7</v>
+        <v>112.4</v>
       </c>
       <c r="AC27" t="n">
-        <v>-7.4</v>
+        <v>-8.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AF27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AH27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI27" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AJ27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK27" t="n">
         <v>14</v>
       </c>
       <c r="AL27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM27" t="n">
         <v>27</v>
       </c>
       <c r="AN27" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AO27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP27" t="n">
         <v>1</v>
@@ -5403,37 +5403,37 @@
         <v>26</v>
       </c>
       <c r="AR27" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AS27" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AT27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AV27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW27" t="n">
         <v>26</v>
       </c>
       <c r="AX27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY27" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AZ27" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA27" t="n">
         <v>7</v>
       </c>
       <c r="BB27" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-11-2020-21</t>
+          <t>2021-01-11</t>
         </is>
       </c>
     </row>
@@ -5543,19 +5543,19 @@
         <v>-2</v>
       </c>
       <c r="AD28" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG28" t="n">
         <v>14</v>
       </c>
-      <c r="AE28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>15</v>
-      </c>
       <c r="AH28" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
@@ -5564,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="AK28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL28" t="n">
         <v>21</v>
@@ -5579,7 +5579,7 @@
         <v>26</v>
       </c>
       <c r="AP28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ28" t="n">
         <v>12</v>
@@ -5594,7 +5594,7 @@
         <v>11</v>
       </c>
       <c r="AU28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV28" t="n">
         <v>1</v>
@@ -5606,19 +5606,19 @@
         <v>14</v>
       </c>
       <c r="AY28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ28" t="n">
         <v>4</v>
       </c>
       <c r="BA28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-11-2020-21</t>
+          <t>2021-01-11</t>
         </is>
       </c>
     </row>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" t="n">
         <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2</v>
+        <v>0.222</v>
       </c>
       <c r="H29" t="n">
         <v>48</v>
       </c>
       <c r="I29" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="J29" t="n">
         <v>89.40000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L29" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="M29" t="n">
-        <v>42.8</v>
+        <v>42.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0.364</v>
+        <v>0.36</v>
       </c>
       <c r="O29" t="n">
-        <v>16.9</v>
+        <v>17.4</v>
       </c>
       <c r="P29" t="n">
-        <v>21.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.786</v>
+        <v>0.773</v>
       </c>
       <c r="R29" t="n">
-        <v>9.6</v>
+        <v>9.9</v>
       </c>
       <c r="S29" t="n">
-        <v>33.9</v>
+        <v>33.7</v>
       </c>
       <c r="T29" t="n">
-        <v>43.5</v>
+        <v>43.6</v>
       </c>
       <c r="U29" t="n">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="V29" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W29" t="n">
-        <v>8.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X29" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Z29" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AA29" t="n">
-        <v>19.3</v>
+        <v>19.9</v>
       </c>
       <c r="AB29" t="n">
         <v>111.1</v>
@@ -5725,28 +5725,28 @@
         <v>-1.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG29" t="n">
         <v>28</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>29</v>
       </c>
       <c r="AH29" t="n">
         <v>15</v>
       </c>
       <c r="AI29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL29" t="n">
         <v>3</v>
@@ -5755,7 +5755,7 @@
         <v>1</v>
       </c>
       <c r="AN29" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AO29" t="n">
         <v>16</v>
@@ -5764,28 +5764,28 @@
         <v>16</v>
       </c>
       <c r="AQ29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR29" t="n">
         <v>16</v>
       </c>
       <c r="AS29" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT29" t="n">
         <v>22</v>
       </c>
       <c r="AU29" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AV29" t="n">
         <v>10</v>
       </c>
       <c r="AW29" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY29" t="n">
         <v>30</v>
@@ -5794,13 +5794,13 @@
         <v>28</v>
       </c>
       <c r="BA29" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="BB29" t="n">
         <v>16</v>
       </c>
       <c r="BC29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5812,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-11-2020-21</t>
+          <t>2021-01-11</t>
         </is>
       </c>
     </row>
@@ -5907,13 +5907,13 @@
         <v>0.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AG30" t="n">
         <v>7</v>
@@ -5925,7 +5925,7 @@
         <v>15</v>
       </c>
       <c r="AJ30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK30" t="n">
         <v>17</v>
@@ -5937,19 +5937,19 @@
         <v>4</v>
       </c>
       <c r="AN30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO30" t="n">
         <v>28</v>
       </c>
       <c r="AP30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ30" t="n">
         <v>29</v>
       </c>
       <c r="AR30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS30" t="n">
         <v>1</v>
@@ -5961,7 +5961,7 @@
         <v>29</v>
       </c>
       <c r="AV30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AW30" t="n">
         <v>30</v>
@@ -5973,16 +5973,16 @@
         <v>17</v>
       </c>
       <c r="AZ30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB30" t="n">
         <v>20</v>
       </c>
       <c r="BC30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5994,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-11-2020-21</t>
+          <t>2021-01-11</t>
         </is>
       </c>
     </row>
@@ -6011,94 +6011,94 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
         <v>8</v>
       </c>
       <c r="G31" t="n">
-        <v>0.273</v>
+        <v>0.2</v>
       </c>
       <c r="H31" t="n">
         <v>48</v>
       </c>
       <c r="I31" t="n">
-        <v>43.9</v>
+        <v>43.5</v>
       </c>
       <c r="J31" t="n">
         <v>91.90000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.478</v>
+        <v>0.473</v>
       </c>
       <c r="L31" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="M31" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.389</v>
+        <v>0.383</v>
       </c>
       <c r="O31" t="n">
-        <v>19.6</v>
+        <v>19.9</v>
       </c>
       <c r="P31" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.737</v>
+        <v>0.751</v>
       </c>
       <c r="R31" t="n">
-        <v>9.1</v>
+        <v>8.6</v>
       </c>
       <c r="S31" t="n">
-        <v>33.7</v>
+        <v>33.2</v>
       </c>
       <c r="T31" t="n">
-        <v>42.8</v>
+        <v>41.8</v>
       </c>
       <c r="U31" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="V31" t="n">
-        <v>13.5</v>
+        <v>14.1</v>
       </c>
       <c r="W31" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="X31" t="n">
         <v>3.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="Z31" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="AA31" t="n">
         <v>22.3</v>
       </c>
       <c r="AB31" t="n">
-        <v>120.5</v>
+        <v>119.7</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.8</v>
+        <v>-3</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE31" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH31" t="n">
         <v>15</v>
@@ -6107,10 +6107,10 @@
         <v>3</v>
       </c>
       <c r="AJ31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK31" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AL31" t="n">
         <v>15</v>
@@ -6119,40 +6119,40 @@
         <v>20</v>
       </c>
       <c r="AN31" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AO31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ31" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AR31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS31" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AT31" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AU31" t="n">
         <v>2</v>
       </c>
       <c r="AV31" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AW31" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AX31" t="n">
         <v>29</v>
       </c>
       <c r="AY31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ31" t="n">
         <v>30</v>
@@ -6164,7 +6164,7 @@
         <v>2</v>
       </c>
       <c r="BC31" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-11-2020-21</t>
+          <t>2021-01-11</t>
         </is>
       </c>
     </row>
